--- a/data/industry_year_patent.xlsx
+++ b/data/industry_year_patent.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="14">
   <si>
     <t>行业</t>
   </si>
   <si>
     <t>申请年</t>
+  </si>
+  <si>
+    <t>公司数量</t>
   </si>
   <si>
     <t>申请数量</t>
@@ -29,6 +32,9 @@
   </si>
   <si>
     <t>申请IPC数量</t>
+  </si>
+  <si>
+    <t>专利宽度</t>
   </si>
   <si>
     <t>被引证次数</t>
@@ -43,16 +49,13 @@
     <t>发明专利数量</t>
   </si>
   <si>
-    <t>专利宽度</t>
-  </si>
-  <si>
     <t>先进制造</t>
   </si>
   <si>
     <t>医疗健康</t>
   </si>
   <si>
-    <t>金融</t>
+    <t>金融服务</t>
   </si>
 </sst>
 </file>
@@ -410,13 +413,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K83"/>
+  <dimension ref="A1:L84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -447,45 +450,51 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2">
         <v>1994</v>
       </c>
       <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
         <v>4</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>6</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>0</v>
       </c>
-      <c r="H2">
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
         <v>4</v>
       </c>
-      <c r="J2">
+      <c r="L2">
         <v>1</v>
       </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>1995</v>
@@ -494,7 +503,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -505,1016 +514,1106 @@
       <c r="H3">
         <v>1</v>
       </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
       <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="L3">
         <v>0</v>
       </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>1996</v>
       </c>
       <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
         <v>5</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>0</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>3</v>
       </c>
-      <c r="G4">
+      <c r="H4">
+        <v>0.7222222222222222</v>
+      </c>
+      <c r="I4">
         <v>0</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>6</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <v>1</v>
       </c>
-      <c r="K4">
-        <v>0.7222222222222222</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>1998</v>
       </c>
       <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
         <v>4</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>9</v>
       </c>
-      <c r="G5">
+      <c r="H5">
+        <v>0.40625</v>
+      </c>
+      <c r="I5">
         <v>5</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>7</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <v>3</v>
       </c>
-      <c r="K5">
-        <v>0.40625</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>1999</v>
       </c>
       <c r="D6">
+        <v>7</v>
+      </c>
+      <c r="E6">
         <v>32</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>66</v>
       </c>
-      <c r="G6">
+      <c r="H6">
+        <v>0.6206391767956922</v>
+      </c>
+      <c r="I6">
         <v>81</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>43</v>
       </c>
-      <c r="J6">
+      <c r="L6">
         <v>16</v>
       </c>
-      <c r="K6">
-        <v>0.6206391767956922</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <v>2000</v>
       </c>
       <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="E7">
         <v>19</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>37</v>
       </c>
-      <c r="G7">
+      <c r="H7">
+        <v>0.3702221074380165</v>
+      </c>
+      <c r="I7">
         <v>89</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <v>29</v>
       </c>
-      <c r="J7">
+      <c r="L7">
         <v>12</v>
       </c>
-      <c r="K7">
-        <v>0.3702221074380165</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8">
         <v>2001</v>
       </c>
       <c r="D8">
+        <v>19</v>
+      </c>
+      <c r="E8">
         <v>89</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>0</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>250</v>
       </c>
-      <c r="G8">
+      <c r="H8">
+        <v>0.4134587195330353</v>
+      </c>
+      <c r="I8">
         <v>417</v>
       </c>
-      <c r="H8">
+      <c r="J8">
         <v>153</v>
       </c>
-      <c r="J8">
+      <c r="L8">
         <v>50</v>
       </c>
-      <c r="K8">
-        <v>0.4134587195330353</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9">
         <v>2002</v>
       </c>
       <c r="D9">
+        <v>25</v>
+      </c>
+      <c r="E9">
         <v>130</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>4</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>419</v>
       </c>
-      <c r="G9">
+      <c r="H9">
+        <v>0.5472636308499518</v>
+      </c>
+      <c r="I9">
         <v>736</v>
       </c>
-      <c r="H9">
+      <c r="J9">
         <v>260</v>
       </c>
-      <c r="I9">
+      <c r="K9">
         <v>13</v>
       </c>
-      <c r="J9">
+      <c r="L9">
         <v>99</v>
       </c>
-      <c r="K9">
-        <v>0.5472636308499518</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10">
         <v>2003</v>
       </c>
       <c r="D10">
+        <v>31</v>
+      </c>
+      <c r="E10">
         <v>174</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>13</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>518</v>
       </c>
-      <c r="G10">
+      <c r="H10">
+        <v>0.628318251116705</v>
+      </c>
+      <c r="I10">
         <v>884</v>
       </c>
-      <c r="H10">
+      <c r="J10">
         <v>360</v>
       </c>
-      <c r="I10">
+      <c r="K10">
         <v>68</v>
       </c>
-      <c r="J10">
+      <c r="L10">
         <v>127</v>
       </c>
-      <c r="K10">
-        <v>0.628318251116705</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C11">
         <v>2004</v>
       </c>
       <c r="D11">
-        <v>260</v>
+        <v>39</v>
       </c>
       <c r="E11">
-        <v>99</v>
+        <v>259</v>
       </c>
       <c r="F11">
-        <v>977</v>
+        <v>98</v>
       </c>
       <c r="G11">
-        <v>1579</v>
+        <v>973</v>
       </c>
       <c r="H11">
-        <v>573</v>
+        <v>0.4921616578333586</v>
       </c>
       <c r="I11">
-        <v>732</v>
+        <v>1575</v>
       </c>
       <c r="J11">
-        <v>194</v>
+        <v>571</v>
       </c>
       <c r="K11">
-        <v>0.4954826163875247</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>729</v>
+      </c>
+      <c r="L11">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C12">
         <v>2005</v>
       </c>
       <c r="D12">
-        <v>464</v>
+        <v>51</v>
       </c>
       <c r="E12">
-        <v>153</v>
+        <v>463</v>
       </c>
       <c r="F12">
-        <v>1667</v>
+        <v>151</v>
       </c>
       <c r="G12">
-        <v>2148</v>
+        <v>1659</v>
       </c>
       <c r="H12">
-        <v>877</v>
+        <v>0.5837054936615003</v>
       </c>
       <c r="I12">
-        <v>1018</v>
+        <v>2145</v>
       </c>
       <c r="J12">
-        <v>296</v>
+        <v>873</v>
       </c>
       <c r="K12">
-        <v>0.5869034649372407</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>990</v>
+      </c>
+      <c r="L12">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C13">
         <v>2006</v>
       </c>
       <c r="D13">
+        <v>93</v>
+      </c>
+      <c r="E13">
         <v>713</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>227</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>2354</v>
       </c>
-      <c r="G13">
+      <c r="H13">
+        <v>0.5171456654035975</v>
+      </c>
+      <c r="I13">
         <v>3523</v>
       </c>
-      <c r="H13">
+      <c r="J13">
         <v>1417</v>
       </c>
-      <c r="I13">
+      <c r="K13">
         <v>1790</v>
       </c>
-      <c r="J13">
+      <c r="L13">
         <v>458</v>
       </c>
-      <c r="K13">
-        <v>0.5171456654035975</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C14">
         <v>2007</v>
       </c>
       <c r="D14">
+        <v>139</v>
+      </c>
+      <c r="E14">
         <v>1258</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>427</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>3748</v>
       </c>
-      <c r="G14">
+      <c r="H14">
+        <v>0.5813589227759313</v>
+      </c>
+      <c r="I14">
         <v>6418</v>
       </c>
-      <c r="H14">
+      <c r="J14">
         <v>2408</v>
       </c>
-      <c r="I14">
+      <c r="K14">
         <v>3040</v>
       </c>
-      <c r="J14">
+      <c r="L14">
         <v>793</v>
       </c>
-      <c r="K14">
-        <v>0.5813589227759313</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C15">
         <v>2008</v>
       </c>
       <c r="D15">
+        <v>226</v>
+      </c>
+      <c r="E15">
         <v>1582</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>540</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>4654</v>
       </c>
-      <c r="G15">
+      <c r="H15">
+        <v>0.6069913178471108</v>
+      </c>
+      <c r="I15">
         <v>8076</v>
       </c>
-      <c r="H15">
+      <c r="J15">
         <v>2880</v>
       </c>
-      <c r="I15">
+      <c r="K15">
         <v>3611</v>
       </c>
-      <c r="J15">
+      <c r="L15">
         <v>1000</v>
       </c>
-      <c r="K15">
-        <v>0.6069913178471108</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C16">
         <v>2009</v>
       </c>
       <c r="D16">
+        <v>304</v>
+      </c>
+      <c r="E16">
         <v>2536</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>898</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>6561</v>
       </c>
-      <c r="G16">
+      <c r="H16">
+        <v>0.6120794873704187</v>
+      </c>
+      <c r="I16">
         <v>10624</v>
       </c>
-      <c r="H16">
+      <c r="J16">
         <v>4603</v>
       </c>
-      <c r="I16">
+      <c r="K16">
         <v>6608</v>
       </c>
-      <c r="J16">
+      <c r="L16">
         <v>1579</v>
       </c>
-      <c r="K16">
-        <v>0.6120794873704187</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C17">
         <v>2010</v>
       </c>
       <c r="D17">
+        <v>424</v>
+      </c>
+      <c r="E17">
         <v>4072</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>1365</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>9270</v>
       </c>
-      <c r="G17">
+      <c r="H17">
+        <v>0.6076007666784391</v>
+      </c>
+      <c r="I17">
         <v>16106</v>
       </c>
-      <c r="H17">
+      <c r="J17">
         <v>8803</v>
       </c>
-      <c r="I17">
+      <c r="K17">
         <v>9851</v>
       </c>
-      <c r="J17">
+      <c r="L17">
         <v>2390</v>
       </c>
-      <c r="K17">
-        <v>0.6076007666784391</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C18">
         <v>2011</v>
       </c>
       <c r="D18">
+        <v>575</v>
+      </c>
+      <c r="E18">
         <v>5645</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>2051</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>12097</v>
       </c>
-      <c r="G18">
+      <c r="H18">
+        <v>0.6023735012881</v>
+      </c>
+      <c r="I18">
         <v>20563</v>
       </c>
-      <c r="H18">
+      <c r="J18">
         <v>15273</v>
       </c>
-      <c r="I18">
+      <c r="K18">
         <v>14363</v>
       </c>
-      <c r="J18">
+      <c r="L18">
         <v>3233</v>
       </c>
-      <c r="K18">
-        <v>0.6023735012881</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C19">
         <v>2012</v>
       </c>
       <c r="D19">
+        <v>707</v>
+      </c>
+      <c r="E19">
         <v>9261</v>
       </c>
-      <c r="E19">
-        <v>4023</v>
-      </c>
       <c r="F19">
+        <v>4022</v>
+      </c>
+      <c r="G19">
         <v>19251</v>
       </c>
-      <c r="G19">
-        <v>31584</v>
-      </c>
       <c r="H19">
+        <v>0.5968421959430364</v>
+      </c>
+      <c r="I19">
+        <v>31590</v>
+      </c>
+      <c r="J19">
         <v>16476</v>
       </c>
-      <c r="I19">
-        <v>28909</v>
-      </c>
-      <c r="J19">
+      <c r="K19">
+        <v>28905</v>
+      </c>
+      <c r="L19">
         <v>5373</v>
       </c>
-      <c r="K19">
-        <v>0.5968421959430364</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C20">
         <v>2013</v>
       </c>
       <c r="D20">
+        <v>916</v>
+      </c>
+      <c r="E20">
         <v>10877</v>
       </c>
-      <c r="E20">
-        <v>6514</v>
-      </c>
       <c r="F20">
+        <v>6502</v>
+      </c>
+      <c r="G20">
         <v>24017</v>
       </c>
-      <c r="G20">
-        <v>39771</v>
-      </c>
       <c r="H20">
+        <v>0.5898730846693478</v>
+      </c>
+      <c r="I20">
+        <v>39773</v>
+      </c>
+      <c r="J20">
         <v>21765</v>
       </c>
-      <c r="I20">
-        <v>46307</v>
-      </c>
-      <c r="J20">
+      <c r="K20">
+        <v>46301</v>
+      </c>
+      <c r="L20">
         <v>6881</v>
       </c>
-      <c r="K20">
-        <v>0.5898730846693478</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C21">
         <v>2014</v>
       </c>
       <c r="D21">
-        <v>12901</v>
+        <v>1193</v>
       </c>
       <c r="E21">
-        <v>9876</v>
+        <v>12898</v>
       </c>
       <c r="F21">
-        <v>29669</v>
+        <v>9867</v>
       </c>
       <c r="G21">
+        <v>29663</v>
+      </c>
+      <c r="H21">
+        <v>0.5793233415998532</v>
+      </c>
+      <c r="I21">
         <v>50958</v>
       </c>
-      <c r="H21">
-        <v>29559</v>
-      </c>
-      <c r="I21">
-        <v>78407</v>
-      </c>
       <c r="J21">
-        <v>9531</v>
+        <v>29551</v>
       </c>
       <c r="K21">
-        <v>0.5794430224043946</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>78347</v>
+      </c>
+      <c r="L21">
+        <v>9527</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C22">
         <v>2015</v>
       </c>
       <c r="D22">
-        <v>22184</v>
+        <v>1669</v>
       </c>
       <c r="E22">
-        <v>17466</v>
+        <v>22183</v>
       </c>
       <c r="F22">
-        <v>52683</v>
+        <v>17464</v>
       </c>
       <c r="G22">
-        <v>86384</v>
+        <v>52678</v>
       </c>
       <c r="H22">
-        <v>46525</v>
+        <v>0.6131339989864959</v>
       </c>
       <c r="I22">
-        <v>147100</v>
+        <v>86508</v>
       </c>
       <c r="J22">
-        <v>16932</v>
+        <v>46521</v>
       </c>
       <c r="K22">
-        <v>0.6127668528793183</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>147088</v>
+      </c>
+      <c r="L22">
+        <v>16930</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C23">
         <v>2016</v>
       </c>
       <c r="D23">
-        <v>33419</v>
+        <v>2273</v>
       </c>
       <c r="E23">
-        <v>25028</v>
+        <v>33411</v>
       </c>
       <c r="F23">
-        <v>82114</v>
+        <v>25019</v>
       </c>
       <c r="G23">
-        <v>117007</v>
+        <v>82100</v>
       </c>
       <c r="H23">
-        <v>65757</v>
+        <v>0.6362455167775113</v>
       </c>
       <c r="I23">
-        <v>209610</v>
+        <v>117200</v>
       </c>
       <c r="J23">
-        <v>24368</v>
+        <v>65739</v>
       </c>
       <c r="K23">
-        <v>0.6363606063407901</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>209535</v>
+      </c>
+      <c r="L23">
+        <v>24359</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C24">
         <v>2017</v>
       </c>
       <c r="D24">
-        <v>36355</v>
+        <v>2621</v>
       </c>
       <c r="E24">
-        <v>27210</v>
+        <v>36342</v>
       </c>
       <c r="F24">
-        <v>94867</v>
+        <v>27212</v>
       </c>
       <c r="G24">
-        <v>107815</v>
+        <v>94852</v>
       </c>
       <c r="H24">
-        <v>67947</v>
+        <v>0.6565817924043336</v>
       </c>
       <c r="I24">
-        <v>227029</v>
+        <v>107974</v>
       </c>
       <c r="J24">
-        <v>25470</v>
+        <v>67939</v>
       </c>
       <c r="K24">
-        <v>0.6564203941601786</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>227013</v>
+      </c>
+      <c r="L24">
+        <v>25461</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C25">
         <v>2018</v>
       </c>
       <c r="D25">
-        <v>40033</v>
+        <v>2733</v>
       </c>
       <c r="E25">
-        <v>32775</v>
+        <v>38361</v>
       </c>
       <c r="F25">
-        <v>107520</v>
+        <v>30887</v>
       </c>
       <c r="G25">
-        <v>85000</v>
+        <v>101899</v>
       </c>
       <c r="H25">
-        <v>79426</v>
+        <v>0.6665899656017914</v>
       </c>
       <c r="I25">
-        <v>288016</v>
+        <v>81559</v>
       </c>
       <c r="J25">
-        <v>28555</v>
+        <v>74929</v>
       </c>
       <c r="K25">
-        <v>0.6666978189159102</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+        <v>259913</v>
+      </c>
+      <c r="L25">
+        <v>26352</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C26">
         <v>2019</v>
       </c>
       <c r="D26">
-        <v>45727</v>
+        <v>2956</v>
       </c>
       <c r="E26">
-        <v>39673</v>
+        <v>43332</v>
       </c>
       <c r="F26">
-        <v>134007</v>
+        <v>37165</v>
       </c>
       <c r="G26">
-        <v>73472</v>
+        <v>126068</v>
       </c>
       <c r="H26">
-        <v>89723</v>
+        <v>0.6903044501994698</v>
       </c>
       <c r="I26">
-        <v>352202</v>
+        <v>69349</v>
       </c>
       <c r="J26">
-        <v>33497</v>
+        <v>83760</v>
       </c>
       <c r="K26">
-        <v>0.690419952543466</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+        <v>319364</v>
+      </c>
+      <c r="L26">
+        <v>30641</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C27">
         <v>2020</v>
       </c>
       <c r="D27">
-        <v>53680</v>
+        <v>3132</v>
       </c>
       <c r="E27">
-        <v>45891</v>
+        <v>50201</v>
       </c>
       <c r="F27">
-        <v>171506</v>
+        <v>43824</v>
       </c>
       <c r="G27">
-        <v>56424</v>
+        <v>160778</v>
       </c>
       <c r="H27">
-        <v>100078</v>
+        <v>0.7117038360989083</v>
       </c>
       <c r="I27">
-        <v>390735</v>
+        <v>53043</v>
       </c>
       <c r="J27">
-        <v>37988</v>
+        <v>93949</v>
       </c>
       <c r="K27">
-        <v>0.7118745809328876</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+        <v>369006</v>
+      </c>
+      <c r="L27">
+        <v>34445</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C28">
         <v>2021</v>
       </c>
       <c r="D28">
-        <v>77236</v>
+        <v>4456</v>
       </c>
       <c r="E28">
-        <v>60167</v>
+        <v>74364</v>
       </c>
       <c r="F28">
-        <v>235387</v>
+        <v>59414</v>
       </c>
       <c r="G28">
-        <v>26582</v>
+        <v>226912</v>
       </c>
       <c r="H28">
-        <v>134190</v>
+        <v>0.730520753996699</v>
       </c>
       <c r="I28">
-        <v>493705</v>
+        <v>25867</v>
       </c>
       <c r="J28">
-        <v>54392</v>
+        <v>130631</v>
       </c>
       <c r="K28">
-        <v>0.7305505965091643</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+        <v>487650</v>
+      </c>
+      <c r="L28">
+        <v>51739</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C29">
         <v>2022</v>
       </c>
       <c r="D29">
-        <v>67628</v>
+        <v>4280</v>
       </c>
       <c r="E29">
-        <v>47488</v>
+        <v>67609</v>
       </c>
       <c r="F29">
-        <v>212651</v>
+        <v>47476</v>
       </c>
       <c r="G29">
-        <v>16724</v>
+        <v>212580</v>
       </c>
       <c r="H29">
-        <v>101189</v>
+        <v>0.7256971512679757</v>
       </c>
       <c r="I29">
-        <v>384115</v>
+        <v>16725</v>
       </c>
       <c r="J29">
-        <v>44855</v>
+        <v>101168</v>
       </c>
       <c r="K29">
-        <v>0.7257585239212964</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+        <v>384016</v>
+      </c>
+      <c r="L29">
+        <v>44845</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C30">
         <v>2023</v>
       </c>
       <c r="D30">
-        <v>52441</v>
+        <v>3927</v>
       </c>
       <c r="E30">
+        <v>52442</v>
+      </c>
+      <c r="F30">
         <v>28991</v>
       </c>
-      <c r="F30">
-        <v>180670</v>
-      </c>
       <c r="G30">
+        <v>180675</v>
+      </c>
+      <c r="H30">
+        <v>0.7094177940034294</v>
+      </c>
+      <c r="I30">
         <v>4728</v>
       </c>
-      <c r="H30">
-        <v>72358</v>
-      </c>
-      <c r="I30">
+      <c r="J30">
+        <v>72359</v>
+      </c>
+      <c r="K30">
         <v>240603</v>
       </c>
-      <c r="J30">
-        <v>41784</v>
-      </c>
-      <c r="K30">
-        <v>0.7094110320559938</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="L30">
+        <v>41785</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C31">
         <v>2024</v>
       </c>
       <c r="D31">
-        <v>1289</v>
+        <v>557</v>
       </c>
       <c r="E31">
+        <v>1291</v>
+      </c>
+      <c r="F31">
         <v>310</v>
       </c>
-      <c r="F31">
-        <v>4706</v>
-      </c>
       <c r="G31">
+        <v>4715</v>
+      </c>
+      <c r="H31">
+        <v>0.4827956379244651</v>
+      </c>
+      <c r="I31">
         <v>2</v>
       </c>
-      <c r="H31">
-        <v>1671</v>
-      </c>
-      <c r="I31">
+      <c r="J31">
+        <v>1673</v>
+      </c>
+      <c r="K31">
         <v>2583</v>
       </c>
-      <c r="J31">
-        <v>1378</v>
-      </c>
-      <c r="K31">
-        <v>0.483296703286355</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="L31">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C32">
         <v>1994</v>
       </c>
       <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
         <v>3</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>0</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>7</v>
       </c>
-      <c r="G32">
+      <c r="H32">
+        <v>0.49</v>
+      </c>
+      <c r="I32">
         <v>6</v>
       </c>
-      <c r="H32">
+      <c r="J32">
         <v>3</v>
       </c>
-      <c r="J32">
+      <c r="L32">
         <v>2</v>
       </c>
-      <c r="K32">
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C33">
         <v>1995</v>
@@ -1523,30 +1622,33 @@
         <v>1</v>
       </c>
       <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
         <v>0</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>1</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>0</v>
       </c>
-      <c r="H33">
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
         <v>1</v>
       </c>
-      <c r="J33">
+      <c r="L33">
         <v>0</v>
       </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C34">
         <v>1997</v>
@@ -1555,39 +1657,42 @@
         <v>1</v>
       </c>
       <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
         <v>0</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>4</v>
       </c>
-      <c r="G34">
+      <c r="H34">
+        <v>0.625</v>
+      </c>
+      <c r="I34">
         <v>0</v>
       </c>
-      <c r="H34">
+      <c r="J34">
         <v>2</v>
       </c>
-      <c r="J34">
+      <c r="L34">
         <v>1</v>
       </c>
-      <c r="K34">
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C35">
         <v>1998</v>
       </c>
       <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
         <v>5</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -1596,1681 +1701,1860 @@
         <v>0</v>
       </c>
       <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
         <v>5</v>
       </c>
-      <c r="J35">
+      <c r="L35">
         <v>0</v>
       </c>
-      <c r="K35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C36">
         <v>1999</v>
       </c>
       <c r="D36">
+        <v>6</v>
+      </c>
+      <c r="E36">
         <v>17</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>0</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>44</v>
       </c>
-      <c r="G36">
+      <c r="H36">
+        <v>0.6368068415637861</v>
+      </c>
+      <c r="I36">
         <v>21</v>
       </c>
-      <c r="H36">
+      <c r="J36">
         <v>49</v>
       </c>
-      <c r="J36">
+      <c r="L36">
         <v>8</v>
       </c>
-      <c r="K36">
-        <v>0.6368068415637861</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C37">
         <v>2000</v>
       </c>
       <c r="D37">
+        <v>12</v>
+      </c>
+      <c r="E37">
         <v>76</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>0</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>168</v>
       </c>
-      <c r="G37">
+      <c r="H37">
+        <v>0.7642704030074299</v>
+      </c>
+      <c r="I37">
         <v>49</v>
       </c>
-      <c r="H37">
+      <c r="J37">
         <v>158</v>
       </c>
-      <c r="J37">
+      <c r="L37">
         <v>19</v>
       </c>
-      <c r="K37">
-        <v>0.7642704030074299</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C38">
         <v>2001</v>
       </c>
       <c r="D38">
+        <v>13</v>
+      </c>
+      <c r="E38">
         <v>38</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>0</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>179</v>
       </c>
-      <c r="G38">
+      <c r="H38">
+        <v>0.6510766065223147</v>
+      </c>
+      <c r="I38">
         <v>153</v>
       </c>
-      <c r="H38">
+      <c r="J38">
         <v>137</v>
       </c>
-      <c r="J38">
+      <c r="L38">
         <v>26</v>
       </c>
-      <c r="K38">
-        <v>0.6510766065223147</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C39">
         <v>2002</v>
       </c>
       <c r="D39">
+        <v>30</v>
+      </c>
+      <c r="E39">
         <v>98</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>6</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>364</v>
       </c>
-      <c r="G39">
+      <c r="H39">
+        <v>0.6295715564714327</v>
+      </c>
+      <c r="I39">
         <v>442</v>
       </c>
-      <c r="H39">
+      <c r="J39">
         <v>180</v>
       </c>
-      <c r="I39">
+      <c r="K39">
         <v>25</v>
       </c>
-      <c r="J39">
+      <c r="L39">
         <v>68</v>
       </c>
-      <c r="K39">
-        <v>0.6295715564714327</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C40">
         <v>2003</v>
       </c>
       <c r="D40">
+        <v>43</v>
+      </c>
+      <c r="E40">
         <v>153</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>18</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>612</v>
       </c>
-      <c r="G40">
+      <c r="H40">
+        <v>0.6980887367254258</v>
+      </c>
+      <c r="I40">
         <v>747</v>
       </c>
-      <c r="H40">
+      <c r="J40">
         <v>361</v>
       </c>
-      <c r="I40">
+      <c r="K40">
         <v>99</v>
       </c>
-      <c r="J40">
+      <c r="L40">
         <v>111</v>
       </c>
-      <c r="K40">
-        <v>0.6980887367254258</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C41">
         <v>2004</v>
       </c>
       <c r="D41">
+        <v>33</v>
+      </c>
+      <c r="E41">
         <v>108</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>60</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>452</v>
       </c>
-      <c r="G41">
+      <c r="H41">
+        <v>0.5912203567640111</v>
+      </c>
+      <c r="I41">
         <v>805</v>
       </c>
-      <c r="H41">
+      <c r="J41">
         <v>247</v>
       </c>
-      <c r="I41">
+      <c r="K41">
         <v>549</v>
       </c>
-      <c r="J41">
+      <c r="L41">
         <v>98</v>
       </c>
-      <c r="K41">
-        <v>0.5912203567640111</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C42">
         <v>2005</v>
       </c>
       <c r="D42">
+        <v>52</v>
+      </c>
+      <c r="E42">
         <v>320</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>154</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>1201</v>
       </c>
-      <c r="G42">
+      <c r="H42">
+        <v>0.629477525695714</v>
+      </c>
+      <c r="I42">
         <v>1689</v>
       </c>
-      <c r="H42">
+      <c r="J42">
         <v>814</v>
       </c>
-      <c r="I42">
+      <c r="K42">
         <v>1235</v>
       </c>
-      <c r="J42">
+      <c r="L42">
         <v>247</v>
       </c>
-      <c r="K42">
-        <v>0.629477525695714</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C43">
         <v>2006</v>
       </c>
       <c r="D43">
+        <v>71</v>
+      </c>
+      <c r="E43">
         <v>485</v>
       </c>
-      <c r="E43">
-        <v>302</v>
-      </c>
       <c r="F43">
-        <v>2032</v>
+        <v>300</v>
       </c>
       <c r="G43">
-        <v>3131</v>
+        <v>2020</v>
       </c>
       <c r="H43">
-        <v>1613</v>
+        <v>0.6743144169563781</v>
       </c>
       <c r="I43">
-        <v>2548</v>
+        <v>3129</v>
       </c>
       <c r="J43">
-        <v>446</v>
+        <v>1609</v>
       </c>
       <c r="K43">
-        <v>0.6743144169563781</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
+        <v>2540</v>
+      </c>
+      <c r="L43">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C44">
         <v>2007</v>
       </c>
       <c r="D44">
-        <v>720</v>
+        <v>97</v>
       </c>
       <c r="E44">
-        <v>437</v>
+        <v>717</v>
       </c>
       <c r="F44">
-        <v>2668</v>
+        <v>432</v>
       </c>
       <c r="G44">
-        <v>4519</v>
+        <v>2635</v>
       </c>
       <c r="H44">
-        <v>1927</v>
+        <v>0.6157978854886497</v>
       </c>
       <c r="I44">
-        <v>4011</v>
+        <v>4504</v>
       </c>
       <c r="J44">
-        <v>659</v>
+        <v>1918</v>
       </c>
       <c r="K44">
-        <v>0.6177037352919036</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
+        <v>3963</v>
+      </c>
+      <c r="L44">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C45">
         <v>2008</v>
       </c>
       <c r="D45">
+        <v>113</v>
+      </c>
+      <c r="E45">
         <v>842</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>420</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>2841</v>
       </c>
-      <c r="G45">
-        <v>4079</v>
-      </c>
       <c r="H45">
+        <v>0.6292161486080505</v>
+      </c>
+      <c r="I45">
+        <v>4081</v>
+      </c>
+      <c r="J45">
         <v>2398</v>
       </c>
-      <c r="I45">
+      <c r="K45">
         <v>4026</v>
       </c>
-      <c r="J45">
+      <c r="L45">
         <v>735</v>
       </c>
-      <c r="K45">
-        <v>0.6292161486080505</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C46">
         <v>2009</v>
       </c>
       <c r="D46">
+        <v>160</v>
+      </c>
+      <c r="E46">
         <v>1240</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>526</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>3987</v>
       </c>
-      <c r="G46">
-        <v>4770</v>
-      </c>
       <c r="H46">
+        <v>0.6261864912667729</v>
+      </c>
+      <c r="I46">
+        <v>4771</v>
+      </c>
+      <c r="J46">
         <v>2698</v>
       </c>
-      <c r="I46">
+      <c r="K46">
         <v>4597</v>
       </c>
-      <c r="J46">
+      <c r="L46">
         <v>892</v>
       </c>
-      <c r="K46">
-        <v>0.6261864912667729</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C47">
         <v>2010</v>
       </c>
       <c r="D47">
+        <v>206</v>
+      </c>
+      <c r="E47">
         <v>1731</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>816</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>4755</v>
       </c>
-      <c r="G47">
-        <v>5438</v>
-      </c>
       <c r="H47">
+        <v>0.5608271419145283</v>
+      </c>
+      <c r="I47">
+        <v>5440</v>
+      </c>
+      <c r="J47">
         <v>4030</v>
       </c>
-      <c r="I47">
+      <c r="K47">
         <v>6662</v>
       </c>
-      <c r="J47">
+      <c r="L47">
         <v>1127</v>
       </c>
-      <c r="K47">
-        <v>0.5608271419145283</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C48">
         <v>2011</v>
       </c>
       <c r="D48">
-        <v>1888</v>
+        <v>262</v>
       </c>
       <c r="E48">
-        <v>1068</v>
+        <v>1887</v>
       </c>
       <c r="F48">
-        <v>5262</v>
+        <v>1066</v>
       </c>
       <c r="G48">
-        <v>7205</v>
+        <v>5252</v>
       </c>
       <c r="H48">
-        <v>4607</v>
+        <v>0.5840362055070714</v>
       </c>
       <c r="I48">
-        <v>9673</v>
+        <v>7199</v>
       </c>
       <c r="J48">
-        <v>1459</v>
+        <v>4603</v>
       </c>
       <c r="K48">
-        <v>0.5842489956002004</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
+        <v>9659</v>
+      </c>
+      <c r="L48">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C49">
         <v>2012</v>
       </c>
       <c r="D49">
+        <v>335</v>
+      </c>
+      <c r="E49">
         <v>2677</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>1381</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>6815</v>
       </c>
-      <c r="G49">
-        <v>9121</v>
-      </c>
       <c r="H49">
+        <v>0.5702116760742348</v>
+      </c>
+      <c r="I49">
+        <v>9123</v>
+      </c>
+      <c r="J49">
         <v>5793</v>
       </c>
-      <c r="I49">
+      <c r="K49">
         <v>11640</v>
       </c>
-      <c r="J49">
+      <c r="L49">
         <v>1938</v>
       </c>
-      <c r="K49">
-        <v>0.5702116760742348</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C50">
         <v>2013</v>
       </c>
       <c r="D50">
+        <v>456</v>
+      </c>
+      <c r="E50">
         <v>2972</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>2087</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>8446</v>
       </c>
-      <c r="G50">
-        <v>10190</v>
-      </c>
       <c r="H50">
+        <v>0.5554034992672561</v>
+      </c>
+      <c r="I50">
+        <v>10193</v>
+      </c>
+      <c r="J50">
         <v>7420</v>
       </c>
-      <c r="I50">
+      <c r="K50">
         <v>16923</v>
       </c>
-      <c r="J50">
+      <c r="L50">
         <v>2441</v>
       </c>
-      <c r="K50">
-        <v>0.5554034992672561</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C51">
         <v>2014</v>
       </c>
       <c r="D51">
-        <v>3402</v>
+        <v>605</v>
       </c>
       <c r="E51">
-        <v>2914</v>
+        <v>3401</v>
       </c>
       <c r="F51">
-        <v>10183</v>
+        <v>2912</v>
       </c>
       <c r="G51">
-        <v>11873</v>
+        <v>10173</v>
       </c>
       <c r="H51">
-        <v>10363</v>
+        <v>0.5586388517554806</v>
       </c>
       <c r="I51">
-        <v>24647</v>
+        <v>11877</v>
       </c>
       <c r="J51">
-        <v>3084</v>
+        <v>10359</v>
       </c>
       <c r="K51">
-        <v>0.5589051242773362</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
+        <v>24628</v>
+      </c>
+      <c r="L51">
+        <v>3082</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C52">
         <v>2015</v>
       </c>
       <c r="D52">
-        <v>5765</v>
+        <v>866</v>
       </c>
       <c r="E52">
-        <v>4879</v>
+        <v>5762</v>
       </c>
       <c r="F52">
-        <v>16145</v>
+        <v>4873</v>
       </c>
       <c r="G52">
-        <v>20684</v>
+        <v>16105</v>
       </c>
       <c r="H52">
-        <v>16484</v>
+        <v>0.580942417525927</v>
       </c>
       <c r="I52">
-        <v>39666</v>
+        <v>20674</v>
       </c>
       <c r="J52">
-        <v>4720</v>
+        <v>16424</v>
       </c>
       <c r="K52">
-        <v>0.5812758172750321</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
+        <v>39612</v>
+      </c>
+      <c r="L52">
+        <v>4714</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C53">
         <v>2016</v>
       </c>
       <c r="D53">
+        <v>1117</v>
+      </c>
+      <c r="E53">
         <v>7731</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <v>6090</v>
       </c>
-      <c r="F53">
+      <c r="G53">
         <v>23248</v>
       </c>
-      <c r="G53">
-        <v>22914</v>
-      </c>
       <c r="H53">
+        <v>0.589589241943859</v>
+      </c>
+      <c r="I53">
+        <v>22916</v>
+      </c>
+      <c r="J53">
         <v>21092</v>
       </c>
-      <c r="I53">
+      <c r="K53">
         <v>48942</v>
       </c>
-      <c r="J53">
+      <c r="L53">
         <v>6088</v>
       </c>
-      <c r="K53">
-        <v>0.589589241943859</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C54">
         <v>2017</v>
       </c>
       <c r="D54">
+        <v>1325</v>
+      </c>
+      <c r="E54">
         <v>10312</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <v>8177</v>
       </c>
-      <c r="F54">
+      <c r="G54">
         <v>32365</v>
       </c>
-      <c r="G54">
-        <v>26284</v>
-      </c>
       <c r="H54">
+        <v>0.6091634901255105</v>
+      </c>
+      <c r="I54">
+        <v>26375</v>
+      </c>
+      <c r="J54">
         <v>25360</v>
       </c>
-      <c r="I54">
+      <c r="K54">
         <v>72180</v>
       </c>
-      <c r="J54">
+      <c r="L54">
         <v>8258</v>
       </c>
-      <c r="K54">
-        <v>0.6091634901255105</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C55">
         <v>2018</v>
       </c>
       <c r="D55">
+        <v>1414</v>
+      </c>
+      <c r="E55">
         <v>11759</v>
       </c>
-      <c r="E55">
-        <v>9602</v>
-      </c>
       <c r="F55">
-        <v>35458</v>
+        <v>9724</v>
       </c>
       <c r="G55">
-        <v>24433</v>
+        <v>35545</v>
       </c>
       <c r="H55">
-        <v>29705</v>
+        <v>0.5952717391130536</v>
       </c>
       <c r="I55">
-        <v>85084</v>
+        <v>25038</v>
       </c>
       <c r="J55">
-        <v>9349</v>
+        <v>29869</v>
       </c>
       <c r="K55">
-        <v>0.5952738208812581</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
+        <v>86225</v>
+      </c>
+      <c r="L55">
+        <v>9388</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C56">
         <v>2019</v>
       </c>
       <c r="D56">
+        <v>1516</v>
+      </c>
+      <c r="E56">
         <v>12788</v>
       </c>
-      <c r="E56">
-        <v>11473</v>
-      </c>
       <c r="F56">
+        <v>11479</v>
+      </c>
+      <c r="G56">
         <v>42297</v>
       </c>
-      <c r="G56">
-        <v>21349</v>
-      </c>
       <c r="H56">
-        <v>33042</v>
+        <v>0.6296152919543008</v>
       </c>
       <c r="I56">
-        <v>97856</v>
+        <v>21565</v>
       </c>
       <c r="J56">
+        <v>33047</v>
+      </c>
+      <c r="K56">
+        <v>97916</v>
+      </c>
+      <c r="L56">
         <v>10032</v>
       </c>
-      <c r="K56">
-        <v>0.6296152919543008</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C57">
         <v>2020</v>
       </c>
       <c r="D57">
-        <v>15530</v>
+        <v>1663</v>
       </c>
       <c r="E57">
-        <v>13213</v>
+        <v>15529</v>
       </c>
       <c r="F57">
-        <v>57358</v>
+        <v>13243</v>
       </c>
       <c r="G57">
-        <v>18264</v>
+        <v>57385</v>
       </c>
       <c r="H57">
-        <v>31944</v>
+        <v>0.672912070099173</v>
       </c>
       <c r="I57">
-        <v>107997</v>
+        <v>18736</v>
       </c>
       <c r="J57">
-        <v>11794</v>
+        <v>31979</v>
       </c>
       <c r="K57">
-        <v>0.6729124294192501</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
+        <v>108300</v>
+      </c>
+      <c r="L57">
+        <v>11799</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C58">
         <v>2021</v>
       </c>
       <c r="D58">
+        <v>2022</v>
+      </c>
+      <c r="E58">
         <v>19380</v>
       </c>
-      <c r="E58">
-        <v>15136</v>
-      </c>
       <c r="F58">
-        <v>68423</v>
+        <v>15191</v>
       </c>
       <c r="G58">
-        <v>7745</v>
+        <v>68475</v>
       </c>
       <c r="H58">
-        <v>33801</v>
+        <v>0.6725116693684224</v>
       </c>
       <c r="I58">
-        <v>119100</v>
+        <v>7979</v>
       </c>
       <c r="J58">
-        <v>14270</v>
+        <v>33868</v>
       </c>
       <c r="K58">
-        <v>0.6725097987032669</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11">
+        <v>119630</v>
+      </c>
+      <c r="L58">
+        <v>14282</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C59">
         <v>2022</v>
       </c>
       <c r="D59">
+        <v>1953</v>
+      </c>
+      <c r="E59">
         <v>17196</v>
       </c>
-      <c r="E59">
+      <c r="F59">
         <v>11899</v>
       </c>
-      <c r="F59">
+      <c r="G59">
         <v>63149</v>
       </c>
-      <c r="G59">
-        <v>4538</v>
-      </c>
       <c r="H59">
+        <v>0.6947397727072528</v>
+      </c>
+      <c r="I59">
+        <v>4565</v>
+      </c>
+      <c r="J59">
         <v>26438</v>
       </c>
-      <c r="I59">
+      <c r="K59">
         <v>94971</v>
       </c>
-      <c r="J59">
+      <c r="L59">
         <v>12067</v>
       </c>
-      <c r="K59">
-        <v>0.6947397727072528</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C60">
         <v>2023</v>
       </c>
       <c r="D60">
-        <v>12940</v>
+        <v>1772</v>
       </c>
       <c r="E60">
-        <v>7367</v>
+        <v>12942</v>
       </c>
       <c r="F60">
-        <v>51659</v>
+        <v>7375</v>
       </c>
       <c r="G60">
-        <v>1373</v>
+        <v>51688</v>
       </c>
       <c r="H60">
-        <v>19037</v>
+        <v>0.6779340908955644</v>
       </c>
       <c r="I60">
-        <v>59162</v>
+        <v>1375</v>
       </c>
       <c r="J60">
-        <v>10879</v>
+        <v>19052</v>
       </c>
       <c r="K60">
-        <v>0.677947235472781</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
+        <v>59227</v>
+      </c>
+      <c r="L60">
+        <v>10886</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C61">
         <v>2024</v>
       </c>
       <c r="D61">
+        <v>206</v>
+      </c>
+      <c r="E61">
         <v>396</v>
       </c>
-      <c r="E61">
+      <c r="F61">
         <v>86</v>
       </c>
-      <c r="F61">
+      <c r="G61">
         <v>1694</v>
       </c>
-      <c r="G61">
+      <c r="H61">
+        <v>0.4746316846562129</v>
+      </c>
+      <c r="I61">
         <v>0</v>
       </c>
-      <c r="H61">
+      <c r="J61">
         <v>511</v>
       </c>
-      <c r="I61">
+      <c r="K61">
         <v>774</v>
       </c>
-      <c r="J61">
+      <c r="L61">
         <v>426</v>
       </c>
-      <c r="K61">
-        <v>0.4746316846562129</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11">
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C62">
-        <v>2003</v>
+        <v>2000</v>
       </c>
       <c r="D62">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E62">
+        <v>4</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
         <v>1</v>
       </c>
-      <c r="F62">
-        <v>12</v>
-      </c>
-      <c r="G62">
-        <v>80</v>
-      </c>
-      <c r="H62">
-        <v>20</v>
-      </c>
       <c r="I62">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J62">
-        <v>9</v>
-      </c>
-      <c r="K62">
-        <v>0.289795918367347</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11">
+        <v>4</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63">
+        <v>2003</v>
+      </c>
+      <c r="D63">
+        <v>5</v>
+      </c>
+      <c r="E63">
+        <v>13</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
         <v>12</v>
       </c>
-      <c r="C63">
-        <v>2004</v>
-      </c>
-      <c r="D63">
-        <v>13</v>
-      </c>
-      <c r="E63">
-        <v>5</v>
-      </c>
-      <c r="F63">
-        <v>30</v>
-      </c>
-      <c r="G63">
-        <v>85</v>
-      </c>
       <c r="H63">
-        <v>21</v>
+        <v>0.289795918367347</v>
       </c>
       <c r="I63">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="J63">
-        <v>12</v>
-      </c>
-      <c r="K63">
-        <v>0.7412131519274376</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11">
+        <v>20</v>
+      </c>
+      <c r="L63">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C64">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="D64">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F64">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="G64">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H64">
-        <v>24</v>
+        <v>0.7487722908093278</v>
+      </c>
+      <c r="I64">
+        <v>196</v>
       </c>
       <c r="J64">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="K64">
-        <v>0.8044444444444445</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11">
+        <v>40</v>
+      </c>
+      <c r="L64">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C65">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="D65">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F65">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G65">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="H65">
-        <v>18</v>
+        <v>0.7733333333333333</v>
       </c>
       <c r="I65">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="J65">
-        <v>4</v>
-      </c>
-      <c r="K65">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11">
+        <v>26</v>
+      </c>
+      <c r="L65">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C66">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="D66">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="E66">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F66">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="G66">
-        <v>152</v>
+        <v>6</v>
       </c>
       <c r="H66">
-        <v>71</v>
+        <v>0.5</v>
       </c>
       <c r="I66">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="J66">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="K66">
-        <v>0.5582640463592844</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11">
+        <v>24</v>
+      </c>
+      <c r="L66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
+        <v>13</v>
+      </c>
+      <c r="C67">
+        <v>2007</v>
+      </c>
+      <c r="D67">
+        <v>7</v>
+      </c>
+      <c r="E67">
+        <v>46</v>
+      </c>
+      <c r="F67">
         <v>12</v>
       </c>
-      <c r="C67">
-        <v>2008</v>
-      </c>
-      <c r="D67">
-        <v>29</v>
-      </c>
-      <c r="E67">
-        <v>7</v>
-      </c>
-      <c r="F67">
-        <v>60</v>
-      </c>
       <c r="G67">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="H67">
-        <v>51</v>
+        <v>0.5965438518370201</v>
       </c>
       <c r="I67">
-        <v>64</v>
+        <v>249</v>
       </c>
       <c r="J67">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="K67">
-        <v>0.4508681476155524</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11">
+        <v>95</v>
+      </c>
+      <c r="L67">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C68">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="D68">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="E68">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F68">
-        <v>89</v>
+        <v>7</v>
       </c>
       <c r="G68">
-        <v>116</v>
+        <v>64</v>
       </c>
       <c r="H68">
-        <v>94</v>
+        <v>0.4708985180524973</v>
       </c>
       <c r="I68">
-        <v>109</v>
+        <v>153</v>
       </c>
       <c r="J68">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="K68">
-        <v>0.4244726114567384</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11">
+        <v>64</v>
+      </c>
+      <c r="L68">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C69">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="D69">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="E69">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="F69">
-        <v>242</v>
+        <v>17</v>
       </c>
       <c r="G69">
-        <v>527</v>
+        <v>108</v>
       </c>
       <c r="H69">
-        <v>179</v>
+        <v>0.4526964968086</v>
       </c>
       <c r="I69">
-        <v>340</v>
+        <v>186</v>
       </c>
       <c r="J69">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="K69">
-        <v>0.5412035890417873</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11">
+        <v>123</v>
+      </c>
+      <c r="L69">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C70">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="D70">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="E70">
-        <v>28</v>
+        <v>113</v>
       </c>
       <c r="F70">
-        <v>156</v>
+        <v>42</v>
       </c>
       <c r="G70">
-        <v>391</v>
+        <v>255</v>
       </c>
       <c r="H70">
-        <v>182</v>
+        <v>0.5458277922827791</v>
       </c>
       <c r="I70">
-        <v>144</v>
+        <v>620</v>
       </c>
       <c r="J70">
-        <v>72</v>
+        <v>197</v>
       </c>
       <c r="K70">
-        <v>0.4008124864144297</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11">
+        <v>360</v>
+      </c>
+      <c r="L70">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C71">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="D71">
-        <v>138</v>
+        <v>28</v>
       </c>
       <c r="E71">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="F71">
-        <v>226</v>
+        <v>34</v>
       </c>
       <c r="G71">
-        <v>604</v>
+        <v>181</v>
       </c>
       <c r="H71">
-        <v>247</v>
+        <v>0.3681043743446261</v>
       </c>
       <c r="I71">
-        <v>630</v>
+        <v>496</v>
       </c>
       <c r="J71">
-        <v>103</v>
+        <v>208</v>
       </c>
       <c r="K71">
-        <v>0.4402312778268982</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11">
+        <v>190</v>
+      </c>
+      <c r="L71">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C72">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="D72">
-        <v>202</v>
+        <v>44</v>
       </c>
       <c r="E72">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="F72">
-        <v>417</v>
+        <v>100</v>
       </c>
       <c r="G72">
-        <v>855</v>
+        <v>303</v>
       </c>
       <c r="H72">
-        <v>505</v>
+        <v>0.4496411269335491</v>
       </c>
       <c r="I72">
-        <v>1381</v>
+        <v>1034</v>
       </c>
       <c r="J72">
-        <v>184</v>
+        <v>340</v>
       </c>
       <c r="K72">
-        <v>0.5435388203658551</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11">
+        <v>922</v>
+      </c>
+      <c r="L72">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C73">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D73">
-        <v>317</v>
+        <v>45</v>
       </c>
       <c r="E73">
-        <v>299</v>
+        <v>324</v>
       </c>
       <c r="F73">
-        <v>685</v>
+        <v>294</v>
       </c>
       <c r="G73">
-        <v>2018</v>
+        <v>790</v>
       </c>
       <c r="H73">
-        <v>775</v>
+        <v>0.5127980756630781</v>
       </c>
       <c r="I73">
-        <v>2667</v>
+        <v>2625</v>
       </c>
       <c r="J73">
-        <v>301</v>
+        <v>923</v>
       </c>
       <c r="K73">
-        <v>0.5511456361815548</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11">
+        <v>3422</v>
+      </c>
+      <c r="L73">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C74">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="D74">
-        <v>704</v>
+        <v>58</v>
       </c>
       <c r="E74">
-        <v>640</v>
+        <v>570</v>
       </c>
       <c r="F74">
-        <v>1383</v>
+        <v>567</v>
       </c>
       <c r="G74">
-        <v>4829</v>
+        <v>1431</v>
       </c>
       <c r="H74">
-        <v>1595</v>
+        <v>0.5382519521370029</v>
       </c>
       <c r="I74">
-        <v>6648</v>
+        <v>4857</v>
       </c>
       <c r="J74">
-        <v>697</v>
+        <v>1586</v>
       </c>
       <c r="K74">
-        <v>0.5196420387477857</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11">
+        <v>6205</v>
+      </c>
+      <c r="L74">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C75">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D75">
-        <v>1365</v>
+        <v>116</v>
       </c>
       <c r="E75">
-        <v>1287</v>
+        <v>1018</v>
       </c>
       <c r="F75">
-        <v>3345</v>
+        <v>929</v>
       </c>
       <c r="G75">
-        <v>14440</v>
+        <v>2144</v>
       </c>
       <c r="H75">
-        <v>3326</v>
+        <v>0.5137096920735365</v>
       </c>
       <c r="I75">
-        <v>16330</v>
+        <v>8119</v>
       </c>
       <c r="J75">
-        <v>1555</v>
+        <v>2361</v>
       </c>
       <c r="K75">
-        <v>0.5094606467636091</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11">
+        <v>9561</v>
+      </c>
+      <c r="L75">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C76">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D76">
-        <v>1925</v>
+        <v>176</v>
       </c>
       <c r="E76">
-        <v>1846</v>
+        <v>1852</v>
       </c>
       <c r="F76">
-        <v>5674</v>
+        <v>1712</v>
       </c>
       <c r="G76">
-        <v>18251</v>
+        <v>4827</v>
       </c>
       <c r="H76">
-        <v>5188</v>
+        <v>0.5298353697202325</v>
       </c>
       <c r="I76">
-        <v>21375</v>
+        <v>20600</v>
       </c>
       <c r="J76">
-        <v>2393</v>
+        <v>4437</v>
       </c>
       <c r="K76">
-        <v>0.5752580547205893</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11">
+        <v>20126</v>
+      </c>
+      <c r="L76">
+        <v>2124</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C77">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D77">
-        <v>3358</v>
+        <v>234</v>
       </c>
       <c r="E77">
-        <v>3011</v>
+        <v>2336</v>
       </c>
       <c r="F77">
-        <v>9786</v>
+        <v>2086</v>
       </c>
       <c r="G77">
-        <v>21230</v>
+        <v>6697</v>
       </c>
       <c r="H77">
-        <v>8760</v>
+        <v>0.5714262168805505</v>
       </c>
       <c r="I77">
-        <v>34333</v>
+        <v>23329</v>
       </c>
       <c r="J77">
-        <v>4230</v>
+        <v>5732</v>
       </c>
       <c r="K77">
-        <v>0.5950811188570503</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11">
+        <v>23659</v>
+      </c>
+      <c r="L77">
+        <v>2734</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C78">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D78">
-        <v>4463</v>
+        <v>239</v>
       </c>
       <c r="E78">
-        <v>3682</v>
+        <v>3868</v>
       </c>
       <c r="F78">
-        <v>14335</v>
+        <v>3641</v>
       </c>
       <c r="G78">
-        <v>17649</v>
+        <v>11492</v>
       </c>
       <c r="H78">
-        <v>11309</v>
+        <v>0.5889504294521808</v>
       </c>
       <c r="I78">
-        <v>37703</v>
+        <v>29874</v>
       </c>
       <c r="J78">
-        <v>5560</v>
+        <v>10152</v>
       </c>
       <c r="K78">
-        <v>0.6258780092745564</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11">
+        <v>41315</v>
+      </c>
+      <c r="L78">
+        <v>4851</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C79">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D79">
-        <v>6747</v>
+        <v>283</v>
       </c>
       <c r="E79">
-        <v>4007</v>
+        <v>5131</v>
       </c>
       <c r="F79">
-        <v>22905</v>
+        <v>4876</v>
       </c>
       <c r="G79">
-        <v>13149</v>
+        <v>17138</v>
       </c>
       <c r="H79">
-        <v>12972</v>
+        <v>0.6267606372921051</v>
       </c>
       <c r="I79">
-        <v>38119</v>
+        <v>28886</v>
       </c>
       <c r="J79">
-        <v>7793</v>
+        <v>13755</v>
       </c>
       <c r="K79">
-        <v>0.6707422702184878</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11">
+        <v>50871</v>
+      </c>
+      <c r="L79">
+        <v>6529</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C80">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D80">
-        <v>7449</v>
+        <v>265</v>
       </c>
       <c r="E80">
-        <v>3090</v>
+        <v>6929</v>
       </c>
       <c r="F80">
-        <v>24273</v>
+        <v>5865</v>
       </c>
       <c r="G80">
-        <v>3893</v>
+        <v>25756</v>
       </c>
       <c r="H80">
-        <v>11726</v>
+        <v>0.6672882792734721</v>
       </c>
       <c r="I80">
-        <v>28915</v>
+        <v>22519</v>
       </c>
       <c r="J80">
-        <v>8047</v>
+        <v>15728</v>
       </c>
       <c r="K80">
-        <v>0.7002724559261104</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11">
+        <v>57103</v>
+      </c>
+      <c r="L80">
+        <v>8549</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C81">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D81">
-        <v>6675</v>
+        <v>273</v>
       </c>
       <c r="E81">
-        <v>1619</v>
+        <v>6813</v>
       </c>
       <c r="F81">
-        <v>20520</v>
+        <v>4461</v>
       </c>
       <c r="G81">
-        <v>1162</v>
+        <v>24663</v>
       </c>
       <c r="H81">
-        <v>8284</v>
+        <v>0.691024093426292</v>
       </c>
       <c r="I81">
-        <v>11117</v>
+        <v>9917</v>
       </c>
       <c r="J81">
-        <v>6545</v>
+        <v>13402</v>
       </c>
       <c r="K81">
-        <v>0.7072787065198094</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11">
+        <v>43758</v>
+      </c>
+      <c r="L81">
+        <v>8078</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C82">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D82">
-        <v>3895</v>
+        <v>282</v>
       </c>
       <c r="E82">
-        <v>798</v>
+        <v>6925</v>
       </c>
       <c r="F82">
-        <v>13184</v>
+        <v>2229</v>
       </c>
       <c r="G82">
-        <v>234</v>
+        <v>21959</v>
       </c>
       <c r="H82">
-        <v>4957</v>
+        <v>0.7111901586361612</v>
       </c>
       <c r="I82">
-        <v>7086</v>
+        <v>3551</v>
       </c>
       <c r="J82">
-        <v>4167</v>
+        <v>9333</v>
       </c>
       <c r="K82">
-        <v>0.6614720013323343</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11">
+        <v>16929</v>
+      </c>
+      <c r="L82">
+        <v>6960</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C83">
+        <v>2023</v>
+      </c>
+      <c r="D83">
+        <v>273</v>
+      </c>
+      <c r="E83">
+        <v>6778</v>
+      </c>
+      <c r="F83">
+        <v>1701</v>
+      </c>
+      <c r="G83">
+        <v>21930</v>
+      </c>
+      <c r="H83">
+        <v>0.7084216403132496</v>
+      </c>
+      <c r="I83">
+        <v>1471</v>
+      </c>
+      <c r="J83">
+        <v>8603</v>
+      </c>
+      <c r="K83">
+        <v>12461</v>
+      </c>
+      <c r="L83">
+        <v>6899</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>13</v>
+      </c>
+      <c r="C84">
         <v>2024</v>
       </c>
-      <c r="D83">
-        <v>43</v>
-      </c>
-      <c r="E83">
-        <v>10</v>
-      </c>
-      <c r="F83">
-        <v>164</v>
-      </c>
-      <c r="G83">
-        <v>0</v>
-      </c>
-      <c r="H83">
-        <v>57</v>
-      </c>
-      <c r="I83">
-        <v>117</v>
-      </c>
-      <c r="J83">
-        <v>48</v>
-      </c>
-      <c r="K83">
-        <v>0.6371763713660189</v>
+      <c r="D84">
+        <v>140</v>
+      </c>
+      <c r="E84">
+        <v>1514</v>
+      </c>
+      <c r="F84">
+        <v>223</v>
+      </c>
+      <c r="G84">
+        <v>5291</v>
+      </c>
+      <c r="H84">
+        <v>0.6304137744421623</v>
+      </c>
+      <c r="I84">
+        <v>26</v>
+      </c>
+      <c r="J84">
+        <v>1832</v>
+      </c>
+      <c r="K84">
+        <v>1975</v>
+      </c>
+      <c r="L84">
+        <v>1612</v>
       </c>
     </row>
   </sheetData>
